--- a/biology/Botanique/Banksia_media/Banksia_media.xlsx
+++ b/biology/Botanique/Banksia_media/Banksia_media.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Banksia des plaines du sud, Banksia à tige dorée
 Banksia media, le banksia des plaines du sud, est une espèce d'arbrisseau du genre Banksia de la famille des Proteaceae, endémique d'Australie. Il se rencontre sur la côte méridionale d'Australie-Occidentale entre Albany et Israelite Bay, où c'est une plante commune.
